--- a/Docentes_sem1.xlsx
+++ b/Docentes_sem1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MisionTIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\Github\MisionTIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E5515-3687-42D0-8AC5-533A69254A57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620DBE83-7FAC-4B17-8BA1-9E1C363B19E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,13 +469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77BEE68-293E-4A04-ADAE-7DD830AC8D98}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>113383644</v>
       </c>
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>113383740</v>
       </c>
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>113383746</v>
       </c>
@@ -699,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>113383815</v>
       </c>
@@ -755,7 +755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>113383894</v>
       </c>
@@ -811,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>113384209</v>
       </c>
@@ -867,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>113384281</v>
       </c>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>113384285</v>
       </c>
@@ -979,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>113385377</v>
       </c>
@@ -1035,13 +1035,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>113385626</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
       <c r="D11" s="2">
         <v>9</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>113386242</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>113386431</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>113386998</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>113389424</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>113391191</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>113408125</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>113417977</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>113418107</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>113418134</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>113446489</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>113457489</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>113459017</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>113460754</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>113461421</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>113461515</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>113466904</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>113471730</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>113472306</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>113476562</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>113489501</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>113581517</v>
       </c>

--- a/Docentes_sem1.xlsx
+++ b/Docentes_sem1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\Github\MisionTIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MisionTIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620DBE83-7FAC-4B17-8BA1-9E1C363B19E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19EE226-C7E9-40C0-83A9-88BAFD6EAD81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="22">
   <si>
     <t>ID de respuesta</t>
   </si>
@@ -98,6 +98,9 @@
   <si>
     <t>De acuerdo con su utilidad cómo califica el método de evaluación</t>
   </si>
+  <si>
+    <t>Ciclo1-Sem2</t>
+  </si>
 </sst>
 </file>
 
@@ -149,10 +152,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,7 +180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77BEE68-293E-4A04-ADAE-7DD830AC8D98}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>113383644</v>
       </c>
@@ -587,7 +596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>113383740</v>
       </c>
@@ -643,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>113383746</v>
       </c>
@@ -699,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>113383815</v>
       </c>
@@ -755,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>113383894</v>
       </c>
@@ -811,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>113384209</v>
       </c>
@@ -867,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>113384281</v>
       </c>
@@ -923,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>113384285</v>
       </c>
@@ -979,7 +988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>113385377</v>
       </c>
@@ -1035,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>113385626</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>113386242</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>113386431</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>113386998</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>113389424</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>113391191</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>113408125</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>113417977</v>
       </c>
@@ -1483,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>113418107</v>
       </c>
@@ -1539,7 +1548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>113418134</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>113446489</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>113457489</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>113459017</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>113460754</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>113461421</v>
       </c>
@@ -1875,7 +1884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>113461515</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>113466904</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>113471730</v>
       </c>
@@ -2043,7 +2052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>113472306</v>
       </c>
@@ -2099,7 +2108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>113476562</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>113489501</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>113581517</v>
       </c>
@@ -2264,6 +2273,1014 @@
         <v>13</v>
       </c>
       <c r="R32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>113581517</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>113660699</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9</v>
+      </c>
+      <c r="F34" s="3">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>113660767</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="3">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>113661016</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>113661087</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>113661596</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3">
+        <v>8</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>113661844</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="3">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>113664182</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>113664320</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>113665833</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>113670169</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3">
+        <v>8</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>113671037</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="3">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>113701598</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>113701600</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="3">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>113701625</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>113701923</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>113702066</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="3">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>113735808</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="3">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3">
+        <v>8</v>
+      </c>
+      <c r="E50" s="3">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3">
+        <v>7</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Docentes_sem1.xlsx
+++ b/Docentes_sem1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MisionTIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC295B-BBA8-442E-8E6E-14144B8EE195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614011CB-1867-4A93-8BED-B46564F540A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="22">
   <si>
     <t>ID de respuesta</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Ciclo1-Sem2</t>
+  </si>
+  <si>
+    <t>Ciclo1-Sem1</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77BEE68-293E-4A04-ADAE-7DD830AC8D98}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A20" sqref="A20:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,6 +1548,1742 @@
         <v>14</v>
       </c>
     </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>113383644</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>113383740</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>113383746</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>113383815</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>113383894</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>113384209</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>113384281</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>113384285</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>113385377</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>8</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>113385626</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>113386242</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>113386431</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>113386998</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>113389424</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>113391191</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>113408125</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>113417977</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>113418107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>113418134</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>113446489</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>113457489</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>113459017</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>113460754</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>113461421</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>113461515</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>113466904</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>113471730</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="2">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>113472306</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>113476562</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>113489501</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2">
+        <v>8</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>113581517</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docentes_sem1.xlsx
+++ b/Docentes_sem1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MisionTIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2CACD-9B3A-46D3-9D0A-BC7270EF0DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18CD65-CCED-48B4-BD44-ECDA901630E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="22">
   <si>
     <t>ID de respuesta</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Ciclo1-Sem2</t>
+  </si>
+  <si>
+    <t>Ciclo1-Sem1</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77BEE68-293E-4A04-ADAE-7DD830AC8D98}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD50"/>
@@ -1545,6 +1548,1742 @@
         <v>14</v>
       </c>
     </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>113383644</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>113383740</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>113383746</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>113383815</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>113383894</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>113384209</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>113384281</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>113384285</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>113385377</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>8</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>113385626</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>113386242</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>113386431</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>113386998</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>113389424</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>113391191</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>113408125</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>113417977</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>113418107</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>113418134</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>113446489</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>113457489</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>113459017</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>113460754</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>113461421</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>113461515</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>113466904</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>113471730</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="2">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>113472306</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>113476562</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>113489501</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2">
+        <v>8</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>113581517</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docentes_sem1.xlsx
+++ b/Docentes_sem1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MisionTIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18CD65-CCED-48B4-BD44-ECDA901630E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE9FD94-6F97-4386-8E4E-3E4827C73B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="23">
   <si>
     <t>ID de respuesta</t>
   </si>
@@ -101,12 +101,15 @@
   <si>
     <t>Ciclo1-Sem1</t>
   </si>
+  <si>
+    <t>Ciclo1-Sem3y4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +134,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -160,6 +167,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77BEE68-293E-4A04-ADAE-7DD830AC8D98}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD50"/>
+      <selection activeCell="A51" sqref="A51:R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,6 +3294,1182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>113824735</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="5">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5">
+        <v>10</v>
+      </c>
+      <c r="E51" s="5">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5">
+        <v>9</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>113884221</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="5">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5">
+        <v>9</v>
+      </c>
+      <c r="E52" s="5">
+        <v>10</v>
+      </c>
+      <c r="F52" s="5">
+        <v>9</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>113884454</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="5">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5">
+        <v>10</v>
+      </c>
+      <c r="E53" s="5">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5">
+        <v>8</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>113884913</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+      <c r="D54" s="5">
+        <v>9</v>
+      </c>
+      <c r="E54" s="5">
+        <v>10</v>
+      </c>
+      <c r="F54" s="5">
+        <v>8</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>113887444</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="5">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5">
+        <v>9</v>
+      </c>
+      <c r="F55" s="5">
+        <v>8</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>113888612</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="5">
+        <v>8</v>
+      </c>
+      <c r="D56" s="5">
+        <v>9</v>
+      </c>
+      <c r="E56" s="5">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5">
+        <v>8</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>113890547</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5">
+        <v>7</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>113898579</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5">
+        <v>9</v>
+      </c>
+      <c r="F58" s="5">
+        <v>8</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>113898878</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="5">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5">
+        <v>9</v>
+      </c>
+      <c r="F59" s="5">
+        <v>6</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>113899290</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="5">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5">
+        <v>6</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>113899537</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="5">
+        <v>9</v>
+      </c>
+      <c r="D61" s="5">
+        <v>5</v>
+      </c>
+      <c r="E61" s="5">
+        <v>8</v>
+      </c>
+      <c r="F61" s="5">
+        <v>8</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>113899744</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="5">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5">
+        <v>9</v>
+      </c>
+      <c r="E62" s="5">
+        <v>9</v>
+      </c>
+      <c r="F62" s="5">
+        <v>7</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>113899979</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="5">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5">
+        <v>10</v>
+      </c>
+      <c r="E63" s="5">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5">
+        <v>10</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>113906813</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="5">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5">
+        <v>7</v>
+      </c>
+      <c r="F64" s="5">
+        <v>8</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>113937671</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="5">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5">
+        <v>9</v>
+      </c>
+      <c r="E65" s="5">
+        <v>9</v>
+      </c>
+      <c r="F65" s="5">
+        <v>9</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>113953572</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5">
+        <v>6</v>
+      </c>
+      <c r="F66" s="5">
+        <v>4</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>113953778</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="5">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5">
+        <v>9</v>
+      </c>
+      <c r="E67" s="5">
+        <v>9</v>
+      </c>
+      <c r="F67" s="5">
+        <v>8</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>114197704</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="5">
+        <v>8</v>
+      </c>
+      <c r="D68" s="5">
+        <v>8</v>
+      </c>
+      <c r="E68" s="5">
+        <v>9</v>
+      </c>
+      <c r="F68" s="5">
+        <v>7</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>114197937</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="5">
+        <v>9</v>
+      </c>
+      <c r="D69" s="5">
+        <v>10</v>
+      </c>
+      <c r="E69" s="5">
+        <v>10</v>
+      </c>
+      <c r="F69" s="5">
+        <v>9</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>114198044</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="5">
+        <v>5</v>
+      </c>
+      <c r="D70" s="5">
+        <v>9</v>
+      </c>
+      <c r="E70" s="5">
+        <v>8</v>
+      </c>
+      <c r="F70" s="5">
+        <v>9</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>114199034</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="5">
+        <v>10</v>
+      </c>
+      <c r="D71" s="5">
+        <v>10</v>
+      </c>
+      <c r="E71" s="5">
+        <v>10</v>
+      </c>
+      <c r="F71" s="5">
+        <v>10</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docentes_sem1.xlsx
+++ b/Docentes_sem1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\MisionTIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive - Universidad del Norte\Documentos\GitHub\MisionTIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE9FD94-6F97-4386-8E4E-3E4827C73B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA2931D-3A52-4A66-A2C0-8A4E2E0AA7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="24">
   <si>
     <t>ID de respuesta</t>
   </si>
@@ -104,6 +104,9 @@
   <si>
     <t>Ciclo1-Sem3y4</t>
   </si>
+  <si>
+    <t>Ciclo 2</t>
+  </si>
 </sst>
 </file>
 
@@ -137,6 +140,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77BEE68-293E-4A04-ADAE-7DD830AC8D98}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:R71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4470,6 +4474,1070 @@
         <v>14</v>
       </c>
     </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>115070999</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2">
+        <v>10</v>
+      </c>
+      <c r="E72" s="2">
+        <v>9</v>
+      </c>
+      <c r="F72" s="2">
+        <v>9</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>115071059</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2">
+        <v>9</v>
+      </c>
+      <c r="E73" s="2">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>115071112</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2">
+        <v>9</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>115071303</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="2">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2">
+        <v>7</v>
+      </c>
+      <c r="F75" s="2">
+        <v>7</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>115071626</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10</v>
+      </c>
+      <c r="D76" s="2">
+        <v>10</v>
+      </c>
+      <c r="E76" s="2">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>115073516</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="2">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2">
+        <v>8</v>
+      </c>
+      <c r="F77" s="2">
+        <v>7</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>115074263</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>115083944</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6</v>
+      </c>
+      <c r="F79" s="2">
+        <v>9</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>115095987</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2">
+        <v>8</v>
+      </c>
+      <c r="F80" s="2">
+        <v>8</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>115120041</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="2">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2">
+        <v>10</v>
+      </c>
+      <c r="E81" s="2">
+        <v>8</v>
+      </c>
+      <c r="F81" s="2">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>115120044</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="2">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2">
+        <v>10</v>
+      </c>
+      <c r="E82" s="2">
+        <v>9</v>
+      </c>
+      <c r="F82" s="2">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>115120138</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10</v>
+      </c>
+      <c r="D83" s="2">
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
+        <v>10</v>
+      </c>
+      <c r="F83" s="2">
+        <v>9</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>115120588</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2">
+        <v>8</v>
+      </c>
+      <c r="F84" s="2">
+        <v>9</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>115122600</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2">
+        <v>10</v>
+      </c>
+      <c r="F85" s="2">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>115142932</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10</v>
+      </c>
+      <c r="D86" s="2">
+        <v>10</v>
+      </c>
+      <c r="E86" s="2">
+        <v>10</v>
+      </c>
+      <c r="F86" s="2">
+        <v>9</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>115148282</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2">
+        <v>5</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>115170659</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2">
+        <v>5</v>
+      </c>
+      <c r="E88" s="2">
+        <v>9</v>
+      </c>
+      <c r="F88" s="2">
+        <v>7</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>115171337</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="2">
+        <v>10</v>
+      </c>
+      <c r="D89" s="2">
+        <v>10</v>
+      </c>
+      <c r="E89" s="2">
+        <v>8</v>
+      </c>
+      <c r="F89" s="2">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>115171629</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="2">
+        <v>10</v>
+      </c>
+      <c r="D90" s="2">
+        <v>10</v>
+      </c>
+      <c r="E90" s="2">
+        <v>10</v>
+      </c>
+      <c r="F90" s="2">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docentes_sem1.xlsx
+++ b/Docentes_sem1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive - Universidad del Norte\Documentos\GitHub\MisionTIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA2931D-3A52-4A66-A2C0-8A4E2E0AA7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2D279-088A-49D2-8189-18EB553B5860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
+    <workbookView minimized="1" xWindow="4665" yWindow="4080" windowWidth="15375" windowHeight="7875" xr2:uid="{3FFF3BB5-41FC-4426-8E7D-209A49351337}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77BEE68-293E-4A04-ADAE-7DD830AC8D98}">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
